--- a/OPC_Sensor/Models With Decompositions/Models with TruncateSVD/LSTM/LSTM.xlsx
+++ b/OPC_Sensor/Models With Decompositions/Models with TruncateSVD/LSTM/LSTM.xlsx
@@ -490,34 +490,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.497618596768007e-05</v>
+        <v>48.35309219360352</v>
       </c>
       <c r="C2" t="n">
-        <v>4.661836555897025e-06</v>
+        <v>-70.95633697509766</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02494727447628975</v>
+        <v>0.1800843477249146</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001101607573218644</v>
+        <v>0.1779545247554779</v>
       </c>
       <c r="F2" t="n">
-        <v>1.986071765713859e-06</v>
+        <v>2251199744</v>
       </c>
       <c r="G2" t="n">
-        <v>2.412799915418873e-07</v>
+        <v>30178.19140625</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0002066130400635302</v>
+        <v>95.77510070800781</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001495818432886153</v>
+        <v>72.24908447265625</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003431703662499785</v>
+        <v>195.1605529785156</v>
       </c>
       <c r="K2" t="n">
-        <v>2.412799915418873e-07</v>
+        <v>30178.19140625</v>
       </c>
     </row>
     <row r="3">
@@ -525,34 +525,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.909827450523153e-06</v>
+        <v>34.68532180786133</v>
       </c>
       <c r="C3" t="n">
-        <v>4.12501549362787e-06</v>
+        <v>-75.94118499755859</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0008141823345795274</v>
+        <v>0.1779861301183701</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0006235077162273228</v>
+        <v>0.176531583070755</v>
       </c>
       <c r="F3" t="n">
-        <v>1.693643525868538e-06</v>
+        <v>2251195392</v>
       </c>
       <c r="G3" t="n">
-        <v>2.392021372088493e-07</v>
+        <v>30178.166015625</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001511742157163098</v>
+        <v>95.76992034912109</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001490885915700346</v>
+        <v>72.24402618408203</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002510824997443706</v>
+        <v>195.1595611572266</v>
       </c>
       <c r="K3" t="n">
-        <v>2.392021372088493e-07</v>
+        <v>30178.166015625</v>
       </c>
     </row>
     <row r="4">
@@ -560,34 +560,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.117779442618485e-06</v>
+        <v>-21.95405197143555</v>
       </c>
       <c r="C4" t="n">
-        <v>4.079145583091304e-06</v>
+        <v>-73.30020141601562</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0005400031805038452</v>
+        <v>0.1681625545024872</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0005665186326950788</v>
+        <v>0.1691295951604843</v>
       </c>
       <c r="F4" t="n">
-        <v>1.660450152485282e-06</v>
+        <v>2251188480</v>
       </c>
       <c r="G4" t="n">
-        <v>2.383537491823517e-07</v>
+        <v>30178.037109375</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001508888672105968</v>
+        <v>95.76531219482422</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001490474096499383</v>
+        <v>72.23950958251953</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0002506804012227803</v>
+        <v>195.1591339111328</v>
       </c>
       <c r="K4" t="n">
-        <v>2.383537491823517e-07</v>
+        <v>30178.037109375</v>
       </c>
     </row>
     <row r="5">
@@ -595,34 +595,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.905454493884463e-06</v>
+        <v>39.88647079467773</v>
       </c>
       <c r="C5" t="n">
-        <v>4.072094270668458e-06</v>
+        <v>-79.25300598144531</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0005147138726897538</v>
+        <v>0.1621847301721573</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0005665186326950788</v>
+        <v>0.1625649631023407</v>
       </c>
       <c r="F5" t="n">
-        <v>1.644699182179465e-06</v>
+        <v>2251215616</v>
       </c>
       <c r="G5" t="n">
-        <v>2.378104255740254e-07</v>
+        <v>30177.8984375</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001508570567239076</v>
+        <v>95.76046752929688</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001490406430093572</v>
+        <v>72.23442077636719</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002506398304831237</v>
+        <v>195.1576690673828</v>
       </c>
       <c r="K5" t="n">
-        <v>2.378104255740254e-07</v>
+        <v>30177.8984375</v>
       </c>
     </row>
     <row r="6">
@@ -630,34 +630,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.789557811411214e-06</v>
+        <v>42.84395980834961</v>
       </c>
       <c r="C6" t="n">
-        <v>4.062890639033867e-06</v>
+        <v>-80.29204559326172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005145867471583188</v>
+        <v>0.1577858626842499</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0005665186326950788</v>
+        <v>0.1620940864086151</v>
       </c>
       <c r="F6" t="n">
-        <v>1.631435225135647e-06</v>
+        <v>2251205120</v>
       </c>
       <c r="G6" t="n">
-        <v>2.371262155520526e-07</v>
+        <v>30177.904296875</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001508387067588046</v>
+        <v>95.75691986083984</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001490317808929831</v>
+        <v>72.23207855224609</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0002506182936485857</v>
+        <v>195.1583404541016</v>
       </c>
       <c r="K6" t="n">
-        <v>2.371262155520526e-07</v>
+        <v>30177.904296875</v>
       </c>
     </row>
     <row r="7">
@@ -665,34 +665,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.696831643334008e-06</v>
+        <v>38.93431091308594</v>
       </c>
       <c r="C7" t="n">
-        <v>4.054273176734569e-06</v>
+        <v>-80.61437225341797</v>
       </c>
       <c r="D7" t="n">
-        <v>0.000514499784912914</v>
+        <v>0.1570619642734528</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0005665186326950788</v>
+        <v>0.1615082770586014</v>
       </c>
       <c r="F7" t="n">
-        <v>1.618335090824985e-06</v>
+        <v>2251215104</v>
       </c>
       <c r="G7" t="n">
-        <v>2.365346176702587e-07</v>
+        <v>30177.822265625</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001508165878476575</v>
+        <v>95.75296783447266</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001490234717493877</v>
+        <v>72.22747039794922</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0002505901211407036</v>
+        <v>195.1572418212891</v>
       </c>
       <c r="K7" t="n">
-        <v>2.365346176702587e-07</v>
+        <v>30177.822265625</v>
       </c>
     </row>
     <row r="8">
@@ -700,34 +700,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.569359367043944e-06</v>
+        <v>29.39632606506348</v>
       </c>
       <c r="C8" t="n">
-        <v>4.041958618472563e-06</v>
+        <v>-81.29606628417969</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0005144228925928473</v>
+        <v>0.1570118814706802</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0005665186326950788</v>
+        <v>0.161327451467514</v>
       </c>
       <c r="F8" t="n">
-        <v>1.594569880580821e-06</v>
+        <v>2251195904</v>
       </c>
       <c r="G8" t="n">
-        <v>2.357434425448446e-07</v>
+        <v>30177.765625</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001507940178271383</v>
+        <v>95.75054168701172</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001490115537308156</v>
+        <v>72.22466278076172</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0002505677985027432</v>
+        <v>195.1578979492188</v>
       </c>
       <c r="K8" t="n">
-        <v>2.357434425448446e-07</v>
+        <v>30177.765625</v>
       </c>
     </row>
     <row r="9">
@@ -735,34 +735,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.50422817771323e-06</v>
+        <v>39.80853652954102</v>
       </c>
       <c r="C9" t="n">
-        <v>4.034423909615725e-06</v>
+        <v>-83.11458587646484</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000514493091031909</v>
+        <v>0.1446442604064941</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0005665186326950788</v>
+        <v>0.121923916041851</v>
       </c>
       <c r="F9" t="n">
-        <v>1.579320837663545e-06</v>
+        <v>2251213824</v>
       </c>
       <c r="G9" t="n">
-        <v>2.352909120872937e-07</v>
+        <v>30177.6171875</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001507681445218623</v>
+        <v>95.74610137939453</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001490042341174558</v>
+        <v>72.22058868408203</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0002505375596228987</v>
+        <v>195.1558837890625</v>
       </c>
       <c r="K9" t="n">
-        <v>2.352909120872937e-07</v>
+        <v>30177.6171875</v>
       </c>
     </row>
     <row r="10">
@@ -770,34 +770,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.434955376884318e-06</v>
+        <v>43.1308479309082</v>
       </c>
       <c r="C10" t="n">
-        <v>4.025289399578469e-06</v>
+        <v>-83.45930480957031</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0005144429160282016</v>
+        <v>0.1221421211957932</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0005665186326950788</v>
+        <v>0.1203628778457642</v>
       </c>
       <c r="F10" t="n">
-        <v>1.560417672408221e-06</v>
+        <v>2251193344</v>
       </c>
       <c r="G10" t="n">
-        <v>2.34762225659324e-07</v>
+        <v>30177.580078125</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00015074665134307</v>
+        <v>95.74333953857422</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001489953720010817</v>
+        <v>72.21758270263672</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0002505141892470419</v>
+        <v>195.1563110351562</v>
       </c>
       <c r="K10" t="n">
-        <v>2.34762225659324e-07</v>
+        <v>30177.580078125</v>
       </c>
     </row>
     <row r="11">
@@ -805,34 +805,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.347796680624015e-06</v>
+        <v>38.22128295898438</v>
       </c>
       <c r="C11" t="n">
-        <v>4.01550732931355e-06</v>
+        <v>-83.52968597412109</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0005145231843926013</v>
+        <v>0.1210377216339111</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.1209700629115105</v>
       </c>
       <c r="F11" t="n">
-        <v>1.535662022433826e-06</v>
+        <v>2251199232</v>
       </c>
       <c r="G11" t="n">
-        <v>2.34202772730896e-07</v>
+        <v>30177.568359375</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0001507201086496934</v>
+        <v>95.73957824707031</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001489858259446919</v>
+        <v>72.21492767333984</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0002504833682905883</v>
+        <v>195.1554107666016</v>
       </c>
       <c r="K11" t="n">
-        <v>2.34202772730896e-07</v>
+        <v>30177.568359375</v>
       </c>
     </row>
     <row r="12">
@@ -840,34 +840,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.281420393046574e-06</v>
+        <v>45.75210952758789</v>
       </c>
       <c r="C12" t="n">
-        <v>4.004267339041689e-06</v>
+        <v>-84.15633392333984</v>
       </c>
       <c r="D12" t="n">
-        <v>0.000514503160957247</v>
+        <v>0.1204694956541061</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.1192893832921982</v>
       </c>
       <c r="F12" t="n">
-        <v>1.515630970061466e-06</v>
+        <v>2251217920</v>
       </c>
       <c r="G12" t="n">
-        <v>2.335328872504761e-07</v>
+        <v>30177.478515625</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001506930857431144</v>
+        <v>95.73670196533203</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001489749556640163</v>
+        <v>72.21163177490234</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0002504537405911833</v>
+        <v>195.1555938720703</v>
       </c>
       <c r="K12" t="n">
-        <v>2.335328872504761e-07</v>
+        <v>30177.478515625</v>
       </c>
     </row>
     <row r="13">
@@ -875,34 +875,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.232382485090056e-06</v>
+        <v>38.67306900024414</v>
       </c>
       <c r="C13" t="n">
-        <v>3.998758984380402e-06</v>
+        <v>-84.96641540527344</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0005144563037902117</v>
+        <v>0.1162709295749664</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.1141407117247581</v>
       </c>
       <c r="F13" t="n">
-        <v>1.501957285654498e-06</v>
+        <v>2251212032</v>
       </c>
       <c r="G13" t="n">
-        <v>2.332489401624116e-07</v>
+        <v>30177.408203125</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001506696717115119</v>
+        <v>95.73318481445312</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001489696005592123</v>
+        <v>72.20797729492188</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0002504283911548555</v>
+        <v>195.1542816162109</v>
       </c>
       <c r="K13" t="n">
-        <v>2.332489401624116e-07</v>
+        <v>30177.408203125</v>
       </c>
     </row>
     <row r="14">
@@ -910,34 +910,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.177327587560285e-06</v>
+        <v>45.67768096923828</v>
       </c>
       <c r="C14" t="n">
-        <v>3.98892916564364e-06</v>
+        <v>-85.98117065429688</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0005138341803103685</v>
+        <v>0.108204074203968</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.106995165348053</v>
       </c>
       <c r="F14" t="n">
-        <v>1.483512619415706e-06</v>
+        <v>2251217408</v>
       </c>
       <c r="G14" t="n">
-        <v>2.327663679579928e-07</v>
+        <v>30177.345703125</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0001506420667283237</v>
+        <v>95.72924041748047</v>
       </c>
       <c r="I14" t="n">
-        <v>0.000148960025398992</v>
+        <v>72.203857421875</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000250395096372813</v>
+        <v>195.1532287597656</v>
       </c>
       <c r="K14" t="n">
-        <v>2.327663679579928e-07</v>
+        <v>30177.345703125</v>
       </c>
     </row>
     <row r="15">
@@ -945,34 +945,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.124623506460921e-06</v>
+        <v>34.84323120117188</v>
       </c>
       <c r="C15" t="n">
-        <v>3.982197540608468e-06</v>
+        <v>-86.63156890869141</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0005144596798345447</v>
+        <v>0.1056254059076309</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.1027472391724586</v>
       </c>
       <c r="F15" t="n">
-        <v>1.466261437599314e-06</v>
+        <v>2251191808</v>
       </c>
       <c r="G15" t="n">
-        <v>2.324296701772255e-07</v>
+        <v>30177.251953125</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0001506187109043822</v>
+        <v>95.72544860839844</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001489534770371392</v>
+        <v>72.19952392578125</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000250371202128008</v>
+        <v>195.1530151367188</v>
       </c>
       <c r="K15" t="n">
-        <v>2.324296701772255e-07</v>
+        <v>30177.251953125</v>
       </c>
     </row>
     <row r="16">
@@ -980,34 +980,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.048696842393838e-06</v>
+        <v>34.50883483886719</v>
       </c>
       <c r="C16" t="n">
-        <v>3.969775207224302e-06</v>
+        <v>-87.22124481201172</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0005145934410393238</v>
+        <v>0.09953242540359497</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.09910578280687332</v>
       </c>
       <c r="F16" t="n">
-        <v>1.438010258425493e-06</v>
+        <v>2251198464</v>
       </c>
       <c r="G16" t="n">
-        <v>2.319237921710737e-07</v>
+        <v>30177.185546875</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0001505871478002518</v>
+        <v>95.72153472900391</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001489413261879236</v>
+        <v>72.19586181640625</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002503358118701726</v>
+        <v>195.1534118652344</v>
       </c>
       <c r="K16" t="n">
-        <v>2.319237921710737e-07</v>
+        <v>30177.185546875</v>
       </c>
     </row>
     <row r="17">
@@ -1015,34 +1015,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.005087026191177e-06</v>
+        <v>38.0066032409668</v>
       </c>
       <c r="C17" t="n">
-        <v>3.961502443416975e-06</v>
+        <v>-87.80339050292969</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0005144262104295194</v>
+        <v>0.09770280867815018</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.0946924239397049</v>
       </c>
       <c r="F17" t="n">
-        <v>1.424997208232526e-06</v>
+        <v>2251190272</v>
       </c>
       <c r="G17" t="n">
-        <v>2.316558607162733e-07</v>
+        <v>30177.146484375</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0001505618274677545</v>
+        <v>95.71846008300781</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001489332062192261</v>
+        <v>72.19322204589844</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0002503097057342529</v>
+        <v>195.1529235839844</v>
       </c>
       <c r="K17" t="n">
-        <v>2.316558607162733e-07</v>
+        <v>30177.146484375</v>
       </c>
     </row>
     <row r="18">
@@ -1050,34 +1050,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.931830638568499e-06</v>
+        <v>43.21269607543945</v>
       </c>
       <c r="C18" t="n">
-        <v>3.952610313717742e-06</v>
+        <v>-89.62374114990234</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0005147104966454208</v>
+        <v>0.08524481952190399</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.07776030153036118</v>
       </c>
       <c r="F18" t="n">
-        <v>1.395821755068027e-06</v>
+        <v>2251202560</v>
       </c>
       <c r="G18" t="n">
-        <v>2.313556137778505e-07</v>
+        <v>30177.0703125</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0001505283871665597</v>
+        <v>95.71555328369141</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001489244750700891</v>
+        <v>72.19060516357422</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000250273325946182</v>
+        <v>195.1524963378906</v>
       </c>
       <c r="K18" t="n">
-        <v>2.313556137778505e-07</v>
+        <v>30177.0703125</v>
       </c>
     </row>
     <row r="19">
@@ -1085,34 +1085,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.886610675683187e-06</v>
+        <v>31.85565948486328</v>
       </c>
       <c r="C19" t="n">
-        <v>3.944195668736938e-06</v>
+        <v>-90.12931823730469</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0005148811032995582</v>
+        <v>0.07522060722112656</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.07491054385900497</v>
       </c>
       <c r="F19" t="n">
-        <v>1.379575451210258e-06</v>
+        <v>2251211008</v>
       </c>
       <c r="G19" t="n">
-        <v>2.310936366711758e-07</v>
+        <v>30177.01953125</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000150501771713607</v>
+        <v>95.71285247802734</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001489162532379851</v>
+        <v>72.18704223632812</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0002502441639080644</v>
+        <v>195.1522521972656</v>
       </c>
       <c r="K19" t="n">
-        <v>2.310936366711758e-07</v>
+        <v>30177.01953125</v>
       </c>
     </row>
     <row r="20">
@@ -1120,34 +1120,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.845789711296675e-06</v>
+        <v>44.6200065612793</v>
       </c>
       <c r="C20" t="n">
-        <v>3.936961093131686e-06</v>
+        <v>-90.66207885742188</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0005145332543179393</v>
+        <v>0.07043066620826721</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06571932137012482</v>
       </c>
       <c r="F20" t="n">
-        <v>1.365183379675727e-06</v>
+        <v>2251199744</v>
       </c>
       <c r="G20" t="n">
-        <v>2.308814259777137e-07</v>
+        <v>30177.068359375</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0001504756801296026</v>
+        <v>95.71015167236328</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001489090645918623</v>
+        <v>72.18564605712891</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0002502163115423173</v>
+        <v>195.1519775390625</v>
       </c>
       <c r="K20" t="n">
-        <v>2.308814259777137e-07</v>
+        <v>30177.068359375</v>
       </c>
     </row>
     <row r="21">
@@ -1155,34 +1155,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.805034116841853e-06</v>
+        <v>30.71867370605469</v>
       </c>
       <c r="C21" t="n">
-        <v>3.933723746740725e-06</v>
+        <v>-90.69577789306641</v>
       </c>
       <c r="D21" t="n">
-        <v>0.000514493091031909</v>
+        <v>0.06524268537759781</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06669425219297409</v>
       </c>
       <c r="F21" t="n">
-        <v>1.349528588434623e-06</v>
+        <v>2251198976</v>
       </c>
       <c r="G21" t="n">
-        <v>2.306978075239385e-07</v>
+        <v>30177.044921875</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0001504525571363047</v>
+        <v>95.70740509033203</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001489059213781729</v>
+        <v>72.18229675292969</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0002501914277672768</v>
+        <v>195.1514892578125</v>
       </c>
       <c r="K21" t="n">
-        <v>2.306978075239385e-07</v>
+        <v>30177.044921875</v>
       </c>
     </row>
     <row r="22">
@@ -1190,34 +1190,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.743728148539958e-06</v>
+        <v>41.52661895751953</v>
       </c>
       <c r="C22" t="n">
-        <v>3.930202638002811e-06</v>
+        <v>-91.09162139892578</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0005142924492247403</v>
+        <v>0.06164344772696495</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06092312186956406</v>
       </c>
       <c r="F22" t="n">
-        <v>1.321722038483131e-06</v>
+        <v>2251200768</v>
       </c>
       <c r="G22" t="n">
-        <v>2.30401241196887e-07</v>
+        <v>30177.0703125</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0001504202227806672</v>
+        <v>95.70487213134766</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001489025598857552</v>
+        <v>72.18006896972656</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0002501565031707287</v>
+        <v>195.1515502929688</v>
       </c>
       <c r="K22" t="n">
-        <v>2.30401241196887e-07</v>
+        <v>30177.0703125</v>
       </c>
     </row>
     <row r="23">
@@ -1225,34 +1225,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.701870701253938e-06</v>
+        <v>50.00973510742188</v>
       </c>
       <c r="C23" t="n">
-        <v>3.929655122192344e-06</v>
+        <v>-90.62886047363281</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0005142221925780177</v>
+        <v>0.06725751608610153</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.07172015309333801</v>
       </c>
       <c r="F23" t="n">
-        <v>1.305428327214031e-06</v>
+        <v>2251196160</v>
       </c>
       <c r="G23" t="n">
-        <v>2.303413282334077e-07</v>
+        <v>30176.970703125</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0001503927051089704</v>
+        <v>95.70145416259766</v>
       </c>
       <c r="I23" t="n">
-        <v>0.000148902036016807</v>
+        <v>72.17631530761719</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0002501289127394557</v>
+        <v>195.151611328125</v>
       </c>
       <c r="K23" t="n">
-        <v>2.303413282334077e-07</v>
+        <v>30176.970703125</v>
       </c>
     </row>
     <row r="24">
@@ -1260,34 +1260,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.662038130234578e-06</v>
+        <v>33.51696014404297</v>
       </c>
       <c r="C24" t="n">
-        <v>3.928694241039921e-06</v>
+        <v>-90.55716705322266</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0005144228925928473</v>
+        <v>0.07265781611204147</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.07476342469453812</v>
       </c>
       <c r="F24" t="n">
-        <v>1.289859369535407e-06</v>
+        <v>2251213312</v>
       </c>
       <c r="G24" t="n">
-        <v>2.302371768792e-07</v>
+        <v>30176.93359375</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0001503658713772893</v>
+        <v>95.69889831542969</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001489011337980628</v>
+        <v>72.17413330078125</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0002500992850400507</v>
+        <v>195.1513671875</v>
       </c>
       <c r="K24" t="n">
-        <v>2.302371768792e-07</v>
+        <v>30176.93359375</v>
       </c>
     </row>
     <row r="25">
@@ -1295,34 +1295,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.629704570405011e-06</v>
+        <v>50.35867691040039</v>
       </c>
       <c r="C25" t="n">
-        <v>3.927432317141211e-06</v>
+        <v>-91.13187408447266</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0005143191665410995</v>
+        <v>0.07260801643133163</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.0680832713842392</v>
       </c>
       <c r="F25" t="n">
-        <v>1.278912918678543e-06</v>
+        <v>2251208192</v>
       </c>
       <c r="G25" t="n">
-        <v>2.301025716633376e-07</v>
+        <v>30176.919921875</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0001503445964772254</v>
+        <v>95.69750213623047</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001488999405410141</v>
+        <v>72.1734619140625</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000250078912358731</v>
+        <v>195.1512756347656</v>
       </c>
       <c r="K25" t="n">
-        <v>2.301025716633376e-07</v>
+        <v>30176.919921875</v>
       </c>
     </row>
     <row r="26">
@@ -1330,34 +1330,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.589157363923732e-06</v>
+        <v>43.13398742675781</v>
       </c>
       <c r="C26" t="n">
-        <v>3.92602123611141e-06</v>
+        <v>-91.49637603759766</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0005142489681020379</v>
+        <v>0.06534486263990402</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06433596462011337</v>
       </c>
       <c r="F26" t="n">
-        <v>1.261437660105003e-06</v>
+        <v>2251212544</v>
       </c>
       <c r="G26" t="n">
-        <v>2.299549919371202e-07</v>
+        <v>30176.892578125</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0001503168605268002</v>
+        <v>95.6964111328125</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001488986017648131</v>
+        <v>72.17218780517578</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0002500489354133606</v>
+        <v>195.1504364013672</v>
       </c>
       <c r="K26" t="n">
-        <v>2.299549919371202e-07</v>
+        <v>30176.892578125</v>
       </c>
     </row>
     <row r="27">
@@ -1365,34 +1365,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.546559246889956e-06</v>
+        <v>34.8504638671875</v>
       </c>
       <c r="C27" t="n">
-        <v>3.924636985175312e-06</v>
+        <v>-91.31813049316406</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0005142756854183972</v>
+        <v>0.06892794370651245</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06742959469556808</v>
       </c>
       <c r="F27" t="n">
-        <v>1.244036639036494e-06</v>
+        <v>2251193344</v>
       </c>
       <c r="G27" t="n">
-        <v>2.298130965527889e-07</v>
+        <v>30176.89453125</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0001502889790572226</v>
+        <v>95.69552612304688</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0001488972920924425</v>
+        <v>72.17147827148438</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0002500192495062947</v>
+        <v>195.1508941650391</v>
       </c>
       <c r="K27" t="n">
-        <v>2.298130965527889e-07</v>
+        <v>30176.89453125</v>
       </c>
     </row>
     <row r="28">
@@ -1400,34 +1400,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.513488200544089e-06</v>
+        <v>51.2851676940918</v>
       </c>
       <c r="C28" t="n">
-        <v>3.923470103472937e-06</v>
+        <v>-91.33472442626953</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0005143057787790895</v>
+        <v>0.06723379343748093</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06879932433366776</v>
       </c>
       <c r="F28" t="n">
-        <v>1.230317934641789e-06</v>
+        <v>2251197184</v>
       </c>
       <c r="G28" t="n">
-        <v>2.296958570013885e-07</v>
+        <v>30176.853515625</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0001502668746979907</v>
+        <v>95.69414520263672</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0001488961861468852</v>
+        <v>72.17041778564453</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0002499959955457598</v>
+        <v>195.1500244140625</v>
       </c>
       <c r="K28" t="n">
-        <v>2.296958570013885e-07</v>
+        <v>30176.853515625</v>
       </c>
     </row>
     <row r="29">
@@ -1435,34 +1435,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.475776116421912e-06</v>
+        <v>38.60573196411133</v>
       </c>
       <c r="C29" t="n">
-        <v>3.92211723010405e-06</v>
+        <v>-90.63864135742188</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0005143392481841147</v>
+        <v>0.07317069917917252</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.08058798313140869</v>
       </c>
       <c r="F29" t="n">
-        <v>1.212587108057051e-06</v>
+        <v>2251208192</v>
       </c>
       <c r="G29" t="n">
-        <v>2.295624170756128e-07</v>
+        <v>30176.76171875</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0001502420782344416</v>
+        <v>95.69374847412109</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0001488949055783451</v>
+        <v>72.16897583007812</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0002499676775187254</v>
+        <v>195.1507720947266</v>
       </c>
       <c r="K29" t="n">
-        <v>2.295624170756128e-07</v>
+        <v>30176.76171875</v>
       </c>
     </row>
     <row r="30">
@@ -1470,34 +1470,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.436943307453475e-06</v>
+        <v>44.00005722045898</v>
       </c>
       <c r="C30" t="n">
-        <v>3.920704330084845e-06</v>
+        <v>-90.83510589599609</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0005142455920577049</v>
+        <v>0.08094730228185654</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.07781942188739777</v>
       </c>
       <c r="F30" t="n">
-        <v>1.19465778425365e-06</v>
+        <v>2251188480</v>
       </c>
       <c r="G30" t="n">
-        <v>2.294261207680393e-07</v>
+        <v>30176.771484375</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0001502153900219128</v>
+        <v>95.69308471679688</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0001488935668021441</v>
+        <v>72.16900634765625</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0002499379916116595</v>
+        <v>195.1500854492188</v>
       </c>
       <c r="K30" t="n">
-        <v>2.294261207680393e-07</v>
+        <v>30176.771484375</v>
       </c>
     </row>
     <row r="31">
@@ -1505,34 +1505,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.402401835548517e-06</v>
+        <v>44.28128051757812</v>
       </c>
       <c r="C31" t="n">
-        <v>3.919309165212326e-06</v>
+        <v>-91.83071136474609</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0005143158487044275</v>
+        <v>0.0724453404545784</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06683104485273361</v>
       </c>
       <c r="F31" t="n">
-        <v>1.179677838081261e-06</v>
+        <v>2251188480</v>
       </c>
       <c r="G31" t="n">
-        <v>2.292946561510689e-07</v>
+        <v>30176.76171875</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0001501916121924296</v>
+        <v>95.69226837158203</v>
       </c>
       <c r="I31" t="n">
-        <v>0.000148892228025943</v>
+        <v>72.16872406005859</v>
       </c>
       <c r="J31" t="n">
-        <v>0.000249910750426352</v>
+        <v>195.1490173339844</v>
       </c>
       <c r="K31" t="n">
-        <v>2.292946561510689e-07</v>
+        <v>30176.76171875</v>
       </c>
     </row>
     <row r="32">
@@ -1540,34 +1540,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.375308102069539e-06</v>
+        <v>47.39518737792969</v>
       </c>
       <c r="C32" t="n">
-        <v>3.918043148587458e-06</v>
+        <v>-91.71714019775391</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0005142088048160076</v>
+        <v>0.07019719481468201</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.07134363055229187</v>
       </c>
       <c r="F32" t="n">
-        <v>1.168120206784806e-06</v>
+        <v>2251204352</v>
       </c>
       <c r="G32" t="n">
-        <v>2.291778855578741e-07</v>
+        <v>30176.666015625</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0001501727529102936</v>
+        <v>95.69193267822266</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0001488910347688943</v>
+        <v>72.16776275634766</v>
       </c>
       <c r="J32" t="n">
-        <v>0.000249888893449679</v>
+        <v>195.1494598388672</v>
       </c>
       <c r="K32" t="n">
-        <v>2.291778855578741e-07</v>
+        <v>30176.666015625</v>
       </c>
     </row>
     <row r="33">
@@ -1575,34 +1575,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.33841297156323e-06</v>
+        <v>38.87147521972656</v>
       </c>
       <c r="C33" t="n">
-        <v>3.916232799383579e-06</v>
+        <v>-91.97486877441406</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0005140850553289056</v>
+        <v>0.07111917436122894</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06941569596529007</v>
       </c>
       <c r="F33" t="n">
-        <v>1.147208081420104e-06</v>
+        <v>2251206144</v>
       </c>
       <c r="G33" t="n">
-        <v>2.290153560124963e-07</v>
+        <v>30176.634765625</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0001501466322224587</v>
+        <v>95.69140625</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0001488893030909821</v>
+        <v>72.1676025390625</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0002498570538591594</v>
+        <v>195.1490478515625</v>
       </c>
       <c r="K33" t="n">
-        <v>2.290153560124963e-07</v>
+        <v>30176.634765625</v>
       </c>
     </row>
     <row r="34">
@@ -1610,34 +1610,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.309209096689301e-06</v>
+        <v>40.52902603149414</v>
       </c>
       <c r="C34" t="n">
-        <v>3.915271008736454e-06</v>
+        <v>-92.23475646972656</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0005139111308380961</v>
+        <v>0.06912799179553986</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06703808158636093</v>
       </c>
       <c r="F34" t="n">
-        <v>1.135670800067601e-06</v>
+        <v>2251216384</v>
       </c>
       <c r="G34" t="n">
-        <v>2.289310998548899e-07</v>
+        <v>30176.626953125</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0001501257647760212</v>
+        <v>95.69115447998047</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0001488883863203228</v>
+        <v>72.16732025146484</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0002498335088603199</v>
+        <v>195.1486206054688</v>
       </c>
       <c r="K34" t="n">
-        <v>2.289310998548899e-07</v>
+        <v>30176.626953125</v>
       </c>
     </row>
     <row r="35">
@@ -1645,34 +1645,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.280366518585652e-06</v>
+        <v>49.58068466186523</v>
       </c>
       <c r="C35" t="n">
-        <v>3.913773525709985e-06</v>
+        <v>-92.38523101806641</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0005138743435963988</v>
+        <v>0.06703098863363266</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06559806317090988</v>
       </c>
       <c r="F35" t="n">
-        <v>1.121161403716542e-06</v>
+        <v>2251197696</v>
       </c>
       <c r="G35" t="n">
-        <v>2.288027616259569e-07</v>
+        <v>30176.626953125</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0001501031074440107</v>
+        <v>95.69086456298828</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0001488869602326304</v>
+        <v>72.16694641113281</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0002498043468222022</v>
+        <v>195.1498107910156</v>
       </c>
       <c r="K35" t="n">
-        <v>2.288027616259569e-07</v>
+        <v>30176.626953125</v>
       </c>
     </row>
     <row r="36">
@@ -1680,34 +1680,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.256981363439991e-06</v>
+        <v>32.64923095703125</v>
       </c>
       <c r="C36" t="n">
-        <v>3.91242701880401e-06</v>
+        <v>-92.89417266845703</v>
       </c>
       <c r="D36" t="n">
-        <v>0.000513773993588984</v>
+        <v>0.06191672384738922</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.05681632831692696</v>
       </c>
       <c r="F36" t="n">
-        <v>1.113700363930548e-06</v>
+        <v>2251205376</v>
       </c>
       <c r="G36" t="n">
-        <v>2.286904248194332e-07</v>
+        <v>30176.6796875</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0001500846410635859</v>
+        <v>95.69086456298828</v>
       </c>
       <c r="I36" t="n">
-        <v>0.000148885665112175</v>
+        <v>72.16731262207031</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0002497821988072246</v>
+        <v>195.1493835449219</v>
       </c>
       <c r="K36" t="n">
-        <v>2.286904248194332e-07</v>
+        <v>30176.6796875</v>
       </c>
     </row>
     <row r="37">
@@ -1715,34 +1715,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.230071461577609e-06</v>
+        <v>36.21355056762695</v>
       </c>
       <c r="C37" t="n">
-        <v>3.910980922228191e-06</v>
+        <v>-93.31394195556641</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0005137639818713069</v>
+        <v>0.06029079481959343</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06260178238153458</v>
       </c>
       <c r="F37" t="n">
-        <v>1.100226427297457e-06</v>
+        <v>2251202048</v>
       </c>
       <c r="G37" t="n">
-        <v>2.28573028948631e-07</v>
+        <v>30176.60546875</v>
       </c>
       <c r="H37" t="n">
-        <v>0.000150064384797588</v>
+        <v>95.68986511230469</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0001488842826802284</v>
+        <v>72.16656494140625</v>
       </c>
       <c r="J37" t="n">
-        <v>0.000249758712016046</v>
+        <v>195.1468353271484</v>
       </c>
       <c r="K37" t="n">
-        <v>2.28573028948631e-07</v>
+        <v>30176.60546875</v>
       </c>
     </row>
     <row r="38">
@@ -1750,34 +1750,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.202644625664107e-06</v>
+        <v>49.82049560546875</v>
       </c>
       <c r="C38" t="n">
-        <v>3.909693077730481e-06</v>
+        <v>-93.55062866210938</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0005138877313584089</v>
+        <v>0.06174188107252121</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.0629301443696022</v>
       </c>
       <c r="F38" t="n">
-        <v>1.088163003259979e-06</v>
+        <v>2251205632</v>
       </c>
       <c r="G38" t="n">
-        <v>2.284713076505795e-07</v>
+        <v>30176.5703125</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0001500434300396591</v>
+        <v>95.69029998779297</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0001488830457674339</v>
+        <v>72.16597747802734</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0002497331297490746</v>
+        <v>195.1492614746094</v>
       </c>
       <c r="K38" t="n">
-        <v>2.284713076505795e-07</v>
+        <v>30176.5703125</v>
       </c>
     </row>
     <row r="39">
@@ -1785,34 +1785,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.169602796835534e-06</v>
+        <v>33.52219772338867</v>
       </c>
       <c r="C39" t="n">
-        <v>3.908178314304678e-06</v>
+        <v>-93.69441986083984</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0005130950012244284</v>
+        <v>0.06052592024207115</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.0632609948515892</v>
       </c>
       <c r="F39" t="n">
-        <v>1.074731244443683e-06</v>
+        <v>2251209728</v>
       </c>
       <c r="G39" t="n">
-        <v>2.283549775938809e-07</v>
+        <v>30176.509765625</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0001500200887676328</v>
+        <v>95.68972778320312</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0001488815905759111</v>
+        <v>72.16476440429688</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0002497069363016635</v>
+        <v>195.1494598388672</v>
       </c>
       <c r="K39" t="n">
-        <v>2.283549775938809e-07</v>
+        <v>30176.509765625</v>
       </c>
     </row>
     <row r="40">
@@ -1820,34 +1820,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.141645839197736e-06</v>
+        <v>52.38123321533203</v>
       </c>
       <c r="C40" t="n">
-        <v>3.906872734660283e-06</v>
+        <v>-93.70477294921875</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0005138174747116864</v>
+        <v>0.06144744530320168</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06247970834374428</v>
       </c>
       <c r="F40" t="n">
-        <v>1.058565658240695e-06</v>
+        <v>2251190784</v>
       </c>
       <c r="G40" t="n">
-        <v>2.282577753476289e-07</v>
+        <v>30176.54296875</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0001499958598287776</v>
+        <v>95.68858337402344</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0001488803391112015</v>
+        <v>72.16455078125</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0002496791712474078</v>
+        <v>195.1483764648438</v>
       </c>
       <c r="K40" t="n">
-        <v>2.282577753476289e-07</v>
+        <v>30176.54296875</v>
       </c>
     </row>
     <row r="41">
@@ -1855,34 +1855,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.118093223340111e-06</v>
+        <v>36.90599822998047</v>
       </c>
       <c r="C41" t="n">
-        <v>3.905234279955039e-06</v>
+        <v>-93.7581787109375</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0005137505941092968</v>
+        <v>0.06317859143018723</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06242720410227776</v>
       </c>
       <c r="F41" t="n">
-        <v>1.05010474271694e-06</v>
+        <v>2251205888</v>
       </c>
       <c r="G41" t="n">
-        <v>2.281395694581079e-07</v>
+        <v>30176.537109375</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0001499756472185254</v>
+        <v>95.68782806396484</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0001488787529524416</v>
+        <v>72.16401672363281</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0002496549859642982</v>
+        <v>195.1485443115234</v>
       </c>
       <c r="K41" t="n">
-        <v>2.281395694581079e-07</v>
+        <v>30176.537109375</v>
       </c>
     </row>
     <row r="42">
@@ -1890,34 +1890,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.083876668417361e-06</v>
+        <v>34.81868362426758</v>
       </c>
       <c r="C42" t="n">
-        <v>3.904061031789752e-06</v>
+        <v>-93.64173126220703</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0005138509441167116</v>
+        <v>0.06586341559886932</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.07102472335100174</v>
       </c>
       <c r="F42" t="n">
-        <v>1.032066847983515e-06</v>
+        <v>2251206656</v>
       </c>
       <c r="G42" t="n">
-        <v>2.280576438806747e-07</v>
+        <v>30176.408203125</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0001499477220932022</v>
+        <v>95.68673706054688</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0001488776179030538</v>
+        <v>72.16233062744141</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0002496237284503877</v>
+        <v>195.1480712890625</v>
       </c>
       <c r="K42" t="n">
-        <v>2.280576438806747e-07</v>
+        <v>30176.408203125</v>
       </c>
     </row>
     <row r="43">
@@ -1925,34 +1925,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-3.229048957109626e-07</v>
+        <v>38.48199844360352</v>
       </c>
       <c r="C43" t="n">
-        <v>3.902833668689709e-06</v>
+        <v>-93.73220062255859</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0005137806874699891</v>
+        <v>0.07159482687711716</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.07218588143587112</v>
       </c>
       <c r="F43" t="n">
-        <v>1.019895876197552e-06</v>
+        <v>2251201536</v>
       </c>
       <c r="G43" t="n">
-        <v>2.279742972177701e-07</v>
+        <v>30176.365234375</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0001499275676906109</v>
+        <v>95.68623352050781</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0001488764391979203</v>
+        <v>72.16181182861328</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0002496023953426629</v>
+        <v>195.1479644775391</v>
       </c>
       <c r="K43" t="n">
-        <v>2.279742972177701e-07</v>
+        <v>30176.365234375</v>
       </c>
     </row>
     <row r="44">
@@ -1960,34 +1960,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-3.860558877022413e-07</v>
+        <v>55.54106521606445</v>
       </c>
       <c r="C44" t="n">
-        <v>3.901670879713492e-06</v>
+        <v>-93.95774841308594</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0005137706757523119</v>
+        <v>0.06977898627519608</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06753081083297729</v>
       </c>
       <c r="F44" t="n">
-        <v>1.014246777231165e-06</v>
+        <v>2251206656</v>
       </c>
       <c r="G44" t="n">
-        <v>2.278976154457268e-07</v>
+        <v>30176.41015625</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0001499092759331688</v>
+        <v>95.68569946289062</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0001488753187004477</v>
+        <v>72.16197204589844</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0002495830121915787</v>
+        <v>195.1464233398438</v>
       </c>
       <c r="K44" t="n">
-        <v>2.278976154457268e-07</v>
+        <v>30176.41015625</v>
       </c>
     </row>
     <row r="45">
@@ -1995,34 +1995,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-4.34688104178349e-07</v>
+        <v>47.4770393371582</v>
       </c>
       <c r="C45" t="n">
-        <v>3.900285719282692e-06</v>
+        <v>-94.18137359619141</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0005137840053066611</v>
+        <v>0.06366012245416641</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06316306442022324</v>
       </c>
       <c r="F45" t="n">
-        <v>1.00827821825078e-06</v>
+        <v>2251189504</v>
       </c>
       <c r="G45" t="n">
-        <v>2.278092097185436e-07</v>
+        <v>30176.421875</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0001498960627941415</v>
+        <v>95.68546295166016</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0001488739799242467</v>
+        <v>72.16203308105469</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0002495660446584225</v>
+        <v>195.1466827392578</v>
       </c>
       <c r="K45" t="n">
-        <v>2.278092097185436e-07</v>
+        <v>30176.421875</v>
       </c>
     </row>
     <row r="46">
@@ -2030,34 +2030,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-4.76953118777601e-07</v>
+        <v>44.35596084594727</v>
       </c>
       <c r="C46" t="n">
-        <v>3.899150215147529e-06</v>
+        <v>-93.66047668457031</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0005137405241839588</v>
+        <v>0.06690744310617447</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.07679398357868195</v>
       </c>
       <c r="F46" t="n">
-        <v>1.002708017949772e-06</v>
+        <v>2251188736</v>
       </c>
       <c r="G46" t="n">
-        <v>2.27739079150524e-07</v>
+        <v>30176.328125</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0001498860510764644</v>
+        <v>95.68569183349609</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0001488728739786893</v>
+        <v>72.161376953125</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0002495553053449839</v>
+        <v>195.1473693847656</v>
       </c>
       <c r="K46" t="n">
-        <v>2.27739079150524e-07</v>
+        <v>30176.328125</v>
       </c>
     </row>
     <row r="47">
@@ -2065,34 +2065,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-5.23464507296012e-07</v>
+        <v>38.54783248901367</v>
       </c>
       <c r="C47" t="n">
-        <v>3.897805527230958e-06</v>
+        <v>-93.97648620605469</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0005137639818713069</v>
+        <v>0.07467176765203476</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.07223007082939148</v>
       </c>
       <c r="F47" t="n">
-        <v>9.953439530363539e-07</v>
+        <v>2251196416</v>
       </c>
       <c r="G47" t="n">
-        <v>2.276587593996737e-07</v>
+        <v>30176.3046875</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0001498709316365421</v>
+        <v>95.68500518798828</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0001488715643063188</v>
+        <v>72.16097259521484</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0002495373773854226</v>
+        <v>195.1466217041016</v>
       </c>
       <c r="K47" t="n">
-        <v>2.276587593996737e-07</v>
+        <v>30176.3046875</v>
       </c>
     </row>
     <row r="48">
@@ -2100,34 +2100,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-5.557423605750955e-07</v>
+        <v>42.30731964111328</v>
       </c>
       <c r="C48" t="n">
-        <v>3.896682756021619e-06</v>
+        <v>-94.26071929931641</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0005137539119459689</v>
+        <v>0.07021133601665497</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06894909590482712</v>
       </c>
       <c r="F48" t="n">
-        <v>9.901741577778012e-07</v>
+        <v>2251197696</v>
       </c>
       <c r="G48" t="n">
-        <v>2.275939863238818e-07</v>
+        <v>30176.271484375</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0001498574274592102</v>
+        <v>95.68475341796875</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0001488704729126766</v>
+        <v>72.16073608398438</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0002495232038199902</v>
+        <v>195.1466979980469</v>
       </c>
       <c r="K48" t="n">
-        <v>2.275939863238818e-07</v>
+        <v>30176.271484375</v>
       </c>
     </row>
     <row r="49">
@@ -2135,34 +2135,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-5.846039812240633e-07</v>
+        <v>45.54868698120117</v>
       </c>
       <c r="C49" t="n">
-        <v>3.895352620020276e-06</v>
+        <v>-94.52643585205078</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0005137806874699891</v>
+        <v>0.06491401046514511</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06213858723640442</v>
       </c>
       <c r="F49" t="n">
-        <v>9.85278120424482e-07</v>
+        <v>2251202816</v>
       </c>
       <c r="G49" t="n">
-        <v>2.275199904033798e-07</v>
+        <v>30176.328125</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0001498435740359128</v>
+        <v>95.68448638916016</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0001488691777922213</v>
+        <v>72.16107177734375</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0002495067019481212</v>
+        <v>195.1464385986328</v>
       </c>
       <c r="K49" t="n">
-        <v>2.275199904033798e-07</v>
+        <v>30176.328125</v>
       </c>
     </row>
     <row r="50">
@@ -2170,34 +2170,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-6.226267146303144e-07</v>
+        <v>49.43500137329102</v>
       </c>
       <c r="C50" t="n">
-        <v>3.894064775522565e-06</v>
+        <v>-94.59064483642578</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0005138174747116864</v>
+        <v>0.06379220634698868</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.06294389814138412</v>
       </c>
       <c r="F50" t="n">
-        <v>9.772135172170238e-07</v>
+        <v>2251202560</v>
       </c>
       <c r="G50" t="n">
-        <v>2.274511103905752e-07</v>
+        <v>30176.28515625</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0001498314668424428</v>
+        <v>95.68421936035156</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0001488679408794269</v>
+        <v>72.16037750244141</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0002494918007869273</v>
+        <v>195.1458435058594</v>
       </c>
       <c r="K50" t="n">
-        <v>2.274511103905752e-07</v>
+        <v>30176.28515625</v>
       </c>
     </row>
     <row r="51">
@@ -2205,34 +2205,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-6.564985142176738e-07</v>
+        <v>38.19790267944336</v>
       </c>
       <c r="C51" t="n">
-        <v>3.892750100931153e-06</v>
+        <v>-94.27333068847656</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0005137238185852766</v>
+        <v>0.06724659353494644</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0005647424259223044</v>
+        <v>0.07250845432281494</v>
       </c>
       <c r="F51" t="n">
-        <v>9.698903795651859e-07</v>
+        <v>2251211008</v>
       </c>
       <c r="G51" t="n">
-        <v>2.27383708306661e-07</v>
+        <v>30176.212890625</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0001498134806752205</v>
+        <v>95.68356323242188</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0001488666603108868</v>
+        <v>72.15957641601562</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0002494700602255762</v>
+        <v>195.1457214355469</v>
       </c>
       <c r="K51" t="n">
-        <v>2.27383708306661e-07</v>
+        <v>30176.212890625</v>
       </c>
     </row>
   </sheetData>
